--- a/30_請求書.xlsx
+++ b/30_請求書.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\am\Documents\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD2F2691-8EE7-4EEF-986F-EDC9A9A36972}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC483C34-575A-4313-96BB-A3C9F0DB36A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D4015812-2DBF-4163-BE28-8A06709D0ED3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{D4015812-2DBF-4163-BE28-8A06709D0ED3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="商品リスト" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,13 +35,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>請求書</t>
     <rPh sb="0" eb="3">
       <t>セイキュウショ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>下記のとおり、ご請求申し上げます。</t>
@@ -56,42 +57,42 @@
     <rPh sb="12" eb="13">
       <t>ア</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>注文番号</t>
     <rPh sb="0" eb="4">
       <t>チュウモンバンゴウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>商品名</t>
     <rPh sb="0" eb="3">
       <t>ショウヒンメイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>単価</t>
     <rPh sb="0" eb="2">
       <t>タンカ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>数量</t>
     <rPh sb="0" eb="2">
       <t>スウリョウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>金額</t>
     <rPh sb="0" eb="2">
       <t>キンガク</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>請求番号：</t>
@@ -101,11 +102,11 @@
     <rPh sb="2" eb="4">
       <t>バンゴウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>〒110-0000</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>東京都台東区上野x-xx-x</t>
@@ -118,7 +119,7 @@
     <rPh sb="6" eb="8">
       <t>ウエノ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>株式会社〇×什器販売</t>
@@ -131,21 +132,21 @@
     <rPh sb="8" eb="10">
       <t>ハンバイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>小計</t>
     <rPh sb="0" eb="2">
       <t>ショウケイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>消費税額</t>
     <rPh sb="0" eb="4">
       <t>ショウヒゼイガク</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>税込合計金額</t>
@@ -155,14 +156,14 @@
     <rPh sb="2" eb="6">
       <t>ゴウケイキンガク</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>【振込先】</t>
     <rPh sb="1" eb="4">
       <t>フリコミサキ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>〇〇銀行　上野支店</t>
@@ -175,14 +176,14 @@
     <rPh sb="7" eb="9">
       <t>シテン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>普通 xxxxxxx</t>
     <rPh sb="0" eb="2">
       <t>フツウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>株式会社XYZアシスタント 様</t>
@@ -192,7 +193,59 @@
     <rPh sb="14" eb="15">
       <t>サマ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本体価格</t>
+    <rPh sb="0" eb="4">
+      <t>ホンタイカカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>折りたたみテーブル</t>
+    <rPh sb="0" eb="1">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ラウンドテーブル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ミーティングテーブル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OAチェア</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OAチェア　肘付き</t>
+    <rPh sb="6" eb="7">
+      <t>ヒジ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メッシュチェア</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スチールラック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ホワイトボード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レターケース</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -203,14 +256,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
@@ -241,6 +286,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
       <color theme="0"/>
       <name val="游ゴシック"/>
       <family val="3"/>
@@ -327,12 +380,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -340,55 +396,75 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="桁区切り" xfId="1" builtinId="6"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -399,6 +475,18 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{388F2931-7B7A-4788-90C6-EBE666F31475}" name="テーブル1" displayName="テーブル1" ref="A1:C10" totalsRowShown="0">
+  <autoFilter ref="A1:C10" xr:uid="{388F2931-7B7A-4788-90C6-EBE666F31475}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{99B9D080-0CA7-4E77-8CE8-846D195C9B1B}" name="注文番号" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{F57CA9DD-46AF-4064-872F-705026242E1F}" name="商品名"/>
+    <tableColumn id="3" xr3:uid="{40AF49D0-A9F9-4BD1-97DE-60BDF2109271}" name="本体価格" dataCellStyle="桁区切り"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -700,171 +788,306 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{467C7A88-CD82-4698-8010-49495D461AE6}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="11.09765625" customWidth="1"/>
     <col min="2" max="2" width="30.19921875" customWidth="1"/>
-    <col min="3" max="4" width="11.09765625" customWidth="1"/>
-    <col min="5" max="5" width="11.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.09765625" style="17" customWidth="1"/>
+    <col min="4" max="4" width="11.09765625" customWidth="1"/>
+    <col min="5" max="5" width="11.09765625" style="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:5" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
     </row>
     <row r="3" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="D3" s="12" t="s">
+      <c r="B3" s="13"/>
+      <c r="D3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="12"/>
+      <c r="E3" s="16"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="E6" s="13" t="s">
+      <c r="B6" s="14"/>
+      <c r="E6" s="18" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="D7" s="2" t="s">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="D7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="2"/>
+      <c r="E7" s="11"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="D8" s="2" t="s">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="D8" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="2"/>
+      <c r="E8" s="11"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="19" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="15"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="15"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="15"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="15"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="15"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="15"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="15"/>
-      <c r="E17" s="9"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="15"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="9" t="s">
         <v>14</v>
       </c>
       <c r="B18" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="16">
+      <c r="D18" s="6">
         <v>0.1</v>
       </c>
-      <c r="E18" s="9"/>
+      <c r="E18" s="15"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A19" s="1"/>
+      <c r="A19" s="9"/>
       <c r="B19" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="15"/>
-      <c r="E19" s="9"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="A6:B6"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A7:B8"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:B4"/>
-    <mergeCell ref="A6:B6"/>
   </mergeCells>
-  <phoneticPr fontId="2"/>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6F2FF18-E98B-4471-99C5-197CFB909AA6}">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="12.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.59765625" style="17" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2" s="20">
+        <v>1001</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="17">
+        <v>15900</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" s="1">
+        <v>1002</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="17">
+        <v>19900</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" s="1">
+        <v>1003</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="17">
+        <v>49400</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" s="1">
+        <v>2001</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="17">
+        <v>9800</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6" s="1">
+        <v>2002</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="17">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7" s="1">
+        <v>2003</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="17">
+        <v>25400</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8" s="1">
+        <v>3001</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="17">
+        <v>12300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9" s="1">
+        <v>3002</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="17">
+        <v>26700</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A10" s="1">
+        <v>3003</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="17">
+        <v>3500</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>